--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value443.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value443.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.564026666023093</v>
+        <v>1.555794715881348</v>
       </c>
       <c r="B1">
-        <v>1.595590903035918</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.653682928943873</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.167821708898878</v>
+        <v>1.397642612457275</v>
       </c>
       <c r="E1">
-        <v>1.974071886711226</v>
+        <v>0.9220103621482849</v>
       </c>
     </row>
   </sheetData>
